--- a/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
@@ -3876,13 +3876,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3923,106 +3916,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>;Enter into 'Managed Devices' and Click 'Mainenance...'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Test Device"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify that:All the alarm trigered by this device during this 2 min should be in maintennace and the incident of alarm will be 'Test device'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Then before the end of schedule maintenance duration, turn this device into Manual maintenance. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Verify that:The incident of this alarm will be ‘Manual’ after this device turn to manual maintenance mode. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Repeat above steps,Verify the overlap between Manual maintenance and Scheduled maintenance. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Clear up the alarms. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;The goal of this test is to verify the interaction when Manuel maintenance overlap with Schedual maintenance.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Enter into 'Managed Devices' and Click 'Mainenance...'.</t>
+    <t>$SNMPdevice_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Devices</t>
+    <t>$GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>" "</t>
+    <t>$GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Test Device"</t>
+    <t>"2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10:163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify that:All the alarm trigered by this device during this 2 min should be in maintennace and the incident of alarm will be 'Test device'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Then before the end of schedule maintenance duration, turn this device into Manual maintenance. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Verify that:The incident of this alarm will be ‘Manual’ after this device turn to manual maintenance mode. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Repeat above steps,Verify the overlap between Manual maintenance and Scheduled maintenance. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Clear up the alarms. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>$Incident$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4554,7 +4555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4565,6 +4568,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4710,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4734,7 +4738,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4776,7 +4780,7 @@
         <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4795,19 +4799,19 @@
         <v>857</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4822,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4879,7 +4883,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4938,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4984,10 +4988,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -5010,7 +5014,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -5066,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>2</v>
@@ -5102,7 +5106,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5188,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -5214,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5240,7 +5244,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5302,7 +5306,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5353,7 +5357,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -5404,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -5442,10 +5446,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
@@ -5464,7 +5468,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="4"/>
@@ -5482,7 +5486,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>814</v>
@@ -5490,13 +5494,13 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I35" s="9">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5508,10 +5512,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
@@ -5530,7 +5534,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5548,7 +5552,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>19</v>
@@ -5572,13 +5576,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5596,7 +5600,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>19</v>
@@ -5624,7 +5628,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>19</v>
@@ -5648,10 +5652,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -5682,13 +5686,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5724,10 +5728,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -5746,7 +5750,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="4"/>
@@ -5794,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>2</v>
@@ -5824,7 +5828,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5934,7 +5938,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -5985,7 +5989,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -6036,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6074,10 +6078,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F60" s="4">
         <v>2</v>
@@ -6096,7 +6100,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="4"/>
@@ -6114,7 +6118,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>814</v>
@@ -6122,13 +6126,13 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I62" s="9">
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6140,10 +6144,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
@@ -6162,7 +6166,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="4"/>
@@ -6204,13 +6208,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
@@ -6228,7 +6232,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>19</v>
@@ -6256,7 +6260,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>19</v>
@@ -6280,10 +6284,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -6314,13 +6318,13 @@
         <v>7</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6356,10 +6360,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F72" s="4">
         <v>2</v>
@@ -6378,7 +6382,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -6426,7 +6430,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>2</v>
@@ -6456,7 +6460,7 @@
         <v>56</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6530,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6556,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6582,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6644,7 +6648,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -6695,7 +6699,7 @@
         <v>27</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -6746,7 +6750,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -6784,10 +6788,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F90" s="4">
         <v>2</v>
@@ -6806,7 +6810,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>814</v>
@@ -6814,13 +6818,13 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I91" s="9">
         <v>1</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6832,10 +6836,10 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F92" s="4">
         <v>2</v>
@@ -6854,7 +6858,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>19</v>
@@ -6878,13 +6882,13 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>2</v>
@@ -6902,7 +6906,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>19</v>
@@ -6930,7 +6934,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>19</v>
@@ -6954,10 +6958,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -6988,13 +6992,13 @@
         <v>7</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7030,13 +7034,13 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F100" s="4">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="9"/>
@@ -7052,7 +7056,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7103,7 +7107,7 @@
         <v>27</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -7154,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7192,10 +7196,10 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F107" s="4">
         <v>2</v>
@@ -7214,7 +7218,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>814</v>
@@ -7222,13 +7226,13 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I108" s="9">
         <v>1</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7240,10 +7244,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -7262,7 +7266,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>19</v>
@@ -7286,13 +7290,13 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>2</v>
@@ -7310,7 +7314,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>19</v>
@@ -7338,7 +7342,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>19</v>
@@ -7362,10 +7366,10 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F114" s="4">
         <v>2</v>
@@ -7396,13 +7400,13 @@
         <v>7</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7438,10 +7442,10 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -7490,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>2</v>
@@ -7520,7 +7524,7 @@
         <v>56</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -7630,7 +7634,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -7681,7 +7685,7 @@
         <v>27</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -7732,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -7770,10 +7774,10 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F131" s="4">
         <v>2</v>
@@ -7792,7 +7796,7 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>814</v>
@@ -7800,13 +7804,13 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="9" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="I132" s="9">
         <v>1</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -7818,10 +7822,10 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F133" s="4">
         <v>2</v>
@@ -7840,7 +7844,7 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>19</v>
@@ -7864,13 +7868,13 @@
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>2</v>
@@ -7888,7 +7892,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>19</v>
@@ -7916,7 +7920,7 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>19</v>
@@ -7940,10 +7944,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -7974,13 +7978,13 @@
         <v>7</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -8016,7 +8020,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="4"/>
@@ -8104,10 +8108,10 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>633</v>
@@ -8116,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -8130,10 +8134,10 @@
         <v>145</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>215</v>
@@ -8154,7 +8158,7 @@
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>640</v>
@@ -8178,10 +8182,10 @@
         <v>147</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
@@ -3987,10 +3987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3999,31 +3995,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify the interaction when Manuel maintenance overlap with Schedual maintenance.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Incident$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Incident$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4566,7 +4566,7 @@
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
@@ -4732,13 +4732,13 @@
         <v>831</v>
       </c>
       <c r="B6" s="8">
-        <v>41135</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4777,11 +4777,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>890</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4817,11 +4815,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>834</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4840,8 +4836,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>834</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4866,10 +4866,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4895,7 +4893,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4923,7 +4921,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4953,7 +4951,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4981,7 +4979,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -5007,7 +5005,7 @@
     </row>
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -5028,10 +5026,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>841</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5058,7 +5056,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5084,11 +5082,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>843</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5117,9 +5113,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>843</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>834</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5145,7 +5143,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5202,6 +5200,10 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -6132,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6560,7 +6562,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6824,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -7232,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7266,7 +7268,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>19</v>
@@ -7290,7 +7292,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>19</v>
@@ -7403,7 +7405,7 @@
         <v>875</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>881</v>
@@ -7810,7 +7812,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2800_ManualMaitenanceAndScheduledMaintenance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8203" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8205" uniqueCount="897">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4007,14 +4007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_device_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4024,6 +4016,14 @@
   </si>
   <si>
     <t>$Sys_Incident$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SingleAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SinAuto_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4553,10 +4553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4756,7 +4756,7 @@
         <v>832</v>
       </c>
       <c r="B7" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4797,10 +4797,10 @@
         <v>857</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>858</v>
@@ -5102,7 +5102,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5122,18 +5122,16 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>863</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -5153,10 +5151,10 @@
         <v>847</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>2</v>
@@ -5184,14 +5182,12 @@
         <v>641</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>381</v>
+        <v>644</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>871</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5220,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5240,13 +5236,13 @@
         <v>641</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>647</v>
+        <v>381</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5266,12 +5262,14 @@
         <v>641</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>17</v>
+        <v>647</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>872</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -5287,10 +5285,10 @@
         <v>847</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>2</v>
@@ -5303,17 +5301,23 @@
       <c r="M26" s="4"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -5321,22 +5325,16 @@
       <c r="M27" s="4"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="15">
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D28" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -5356,13 +5354,13 @@
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -5380,10 +5378,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5407,12 +5405,10 @@
         <v>114</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I31" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5430,12 +5426,14 @@
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5448,15 +5446,17 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5465,45 +5465,41 @@
       <c r="M33" s="4"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="3:14" ht="15">
+    <row r="34" spans="3:14">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" ht="15">
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D35" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>895</v>
-      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -5517,54 +5513,56 @@
         <v>862</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="4"/>
+      <c r="H36" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:14" ht="15">
+    <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" ht="15">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5584,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>874</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>2</v>
@@ -5608,17 +5606,13 @@
         <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5636,13 +5630,17 @@
         <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -5654,17 +5652,19 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5676,26 +5676,18 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>877</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5712,14 +5704,20 @@
         <v>226</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>877</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -5730,58 +5728,58 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="3:14" ht="15">
+    <row r="46" spans="3:14">
       <c r="C46" s="4">
         <v>45</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="4"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" ht="15">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="9"/>
+      <c r="D47" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5800,7 +5798,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>870</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>2</v>
@@ -5821,17 +5819,15 @@
         <v>847</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>633</v>
+        <v>870</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5850,12 +5846,14 @@
         <v>632</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5871,10 +5869,10 @@
         <v>847</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>2</v>
@@ -5898,7 +5896,7 @@
         <v>641</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>2</v>
@@ -5919,10 +5917,10 @@
         <v>847</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>2</v>
@@ -5935,17 +5933,23 @@
       <c r="M53" s="4"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="3:14" ht="15">
+    <row r="54" spans="3:14">
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="D54" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="9"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -5953,22 +5957,16 @@
       <c r="M54" s="4"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="3:14">
+    <row r="55" spans="3:14" ht="15">
       <c r="C55" s="4">
         <v>54</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D55" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5988,13 +5986,13 @@
         <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -6012,10 +6010,10 @@
         <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -6039,12 +6037,10 @@
         <v>114</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I58" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6062,12 +6058,14 @@
         <v>19</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6080,15 +6078,17 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6097,45 +6097,41 @@
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14" ht="15">
+    <row r="61" spans="3:14">
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="4"/>
+      <c r="D61" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="3:14">
+    <row r="62" spans="3:14" ht="15">
       <c r="C62" s="4">
         <v>61</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>814</v>
-      </c>
+      <c r="D62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I62" s="9">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>895</v>
-      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6149,54 +6145,56 @@
         <v>862</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="4"/>
+      <c r="H63" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14" ht="15">
+    <row r="64" spans="3:14">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="4"/>
+      <c r="D64" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="3:14">
+    <row r="65" spans="3:14" ht="15">
       <c r="C65" s="4">
         <v>64</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D65" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6210,13 +6208,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>874</v>
+        <v>26</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>2</v>
@@ -6240,17 +6238,13 @@
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67" s="4">
-        <v>1</v>
-      </c>
-      <c r="I67" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -6268,13 +6262,17 @@
         <v>19</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -6286,17 +6284,19 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -6308,26 +6308,18 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>896</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6344,14 +6336,20 @@
         <v>226</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -6362,58 +6360,58 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F72" s="4">
-        <v>2</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="3:14" ht="15">
+    <row r="73" spans="3:14">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="D73" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="3:14">
+    <row r="74" spans="3:14" ht="15">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="9"/>
+      <c r="D74" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6432,7 +6430,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>870</v>
+        <v>22</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>2</v>
@@ -6453,17 +6451,15 @@
         <v>847</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>633</v>
+        <v>870</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" s="9"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6482,12 +6478,14 @@
         <v>632</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6503,10 +6501,10 @@
         <v>847</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6530,14 +6528,12 @@
         <v>641</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>381</v>
+        <v>644</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>871</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" s="9"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -6562,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6582,13 +6578,13 @@
         <v>641</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>647</v>
+        <v>381</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6608,12 +6604,14 @@
         <v>641</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>17</v>
+        <v>647</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>872</v>
+      </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -6629,10 +6627,10 @@
         <v>847</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>2</v>
@@ -6645,16 +6643,22 @@
       <c r="M83" s="4"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="3:14" ht="15">
+    <row r="84" spans="3:14">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="D84" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6663,22 +6667,16 @@
       <c r="M84" s="4"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="15">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D85" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6698,13 +6696,13 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -6722,10 +6720,10 @@
         <v>19</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -6749,12 +6747,10 @@
         <v>114</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I88" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6772,12 +6768,14 @@
         <v>19</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -6790,15 +6788,17 @@
         <v>89</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F90" s="4">
-        <v>2</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H90" s="9"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6812,22 +6812,18 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F91" s="4"/>
+        <v>886</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I91" s="9">
-        <v>1</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>895</v>
-      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -6841,15 +6837,19 @@
         <v>862</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F92" s="4">
-        <v>2</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="4"/>
+      <c r="H92" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6860,19 +6860,17 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+        <v>863</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -6890,7 +6888,7 @@
         <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>874</v>
+        <v>26</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>2</v>
@@ -6914,17 +6912,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6942,13 +6936,17 @@
         <v>19</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -6960,17 +6958,19 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F97" s="4">
-        <v>1</v>
-      </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -6982,26 +6982,18 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>881</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -7018,14 +7010,20 @@
         <v>226</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>881</v>
+      </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -7036,57 +7034,57 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F100" s="4">
-        <v>180</v>
-      </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="3:14" ht="15">
+    <row r="101" spans="3:14">
       <c r="C101" s="4">
         <v>100</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="D101" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="F101" s="4">
+        <v>180</v>
+      </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="3:14">
+    <row r="102" spans="3:14" ht="15">
       <c r="C102" s="4">
         <v>101</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D102" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7106,13 +7104,13 @@
         <v>19</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -7130,10 +7128,10 @@
         <v>19</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -7157,12 +7155,10 @@
         <v>114</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I105" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7180,12 +7176,14 @@
         <v>19</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7198,15 +7196,17 @@
         <v>106</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F107" s="4">
-        <v>2</v>
-      </c>
-      <c r="G107" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H107" s="9"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -7220,22 +7220,18 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F108" s="4"/>
+        <v>886</v>
+      </c>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I108" s="9">
-        <v>1</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>895</v>
-      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -7249,15 +7245,19 @@
         <v>862</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F109" s="4">
+        <v>814</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I109" s="9">
         <v>1</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="4"/>
+      <c r="J109" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
@@ -7268,19 +7268,17 @@
         <v>109</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+        <v>863</v>
+      </c>
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -7298,7 +7296,7 @@
         <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>874</v>
+        <v>26</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>2</v>
@@ -7316,23 +7314,19 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7350,13 +7344,17 @@
         <v>19</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -7368,17 +7366,19 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F114" s="4">
-        <v>2</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7390,26 +7390,18 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>881</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F115" s="4">
+        <v>2</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -7426,14 +7418,20 @@
         <v>226</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>881</v>
+      </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
@@ -7444,17 +7442,19 @@
         <v>116</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1</v>
-      </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7466,19 +7466,17 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="4"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -7496,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>870</v>
+        <v>22</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>2</v>
@@ -7517,17 +7515,15 @@
         <v>847</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>633</v>
+        <v>870</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>893</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" s="9"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7546,12 +7542,14 @@
         <v>632</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
@@ -7567,10 +7565,10 @@
         <v>847</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>2</v>
@@ -7594,12 +7592,12 @@
         <v>641</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H123" s="4"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
@@ -7615,10 +7613,10 @@
         <v>847</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>2</v>
@@ -7631,16 +7629,22 @@
       <c r="M124" s="4"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="3:14" ht="15">
+    <row r="125" spans="3:14">
       <c r="C125" s="4">
         <v>124</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="D125" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7649,22 +7653,16 @@
       <c r="M125" s="4"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="3:14">
+    <row r="126" spans="3:14" ht="15">
       <c r="C126" s="4">
         <v>125</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D126" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -7684,13 +7682,13 @@
         <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -7708,10 +7706,10 @@
         <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2</v>
+        <v>884</v>
       </c>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -7735,12 +7733,10 @@
         <v>114</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I129" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -7758,12 +7754,14 @@
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -7776,15 +7774,17 @@
         <v>130</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>885</v>
+        <v>847</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F131" s="4">
-        <v>2</v>
-      </c>
-      <c r="G131" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H131" s="9"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -7798,22 +7798,18 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F132" s="4"/>
+        <v>886</v>
+      </c>
+      <c r="F132" s="4">
+        <v>2</v>
+      </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="I132" s="9">
-        <v>1</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>895</v>
-      </c>
+      <c r="H132" s="9"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -7827,15 +7823,19 @@
         <v>862</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F133" s="4">
-        <v>2</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="4"/>
+      <c r="H133" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I133" s="9">
+        <v>1</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -7846,19 +7846,17 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
+        <v>863</v>
+      </c>
+      <c r="F134" s="4">
+        <v>2</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -7876,7 +7874,7 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>874</v>
+        <v>26</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>2</v>
@@ -7900,17 +7898,13 @@
         <v>19</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>114</v>
+        <v>874</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" s="4">
-        <v>1</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -7928,13 +7922,17 @@
         <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="H137" s="4">
+        <v>1</v>
+      </c>
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -7946,17 +7944,19 @@
         <v>137</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="F138" s="4">
-        <v>1</v>
-      </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -7968,26 +7968,18 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="I139" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>896</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -8004,30 +7996,42 @@
         <v>226</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="3:14" ht="15">
+    <row r="141" spans="3:14">
       <c r="C141" s="4">
         <v>140</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="9"/>
+      <c r="D141" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -8035,19 +8039,15 @@
       <c r="M141" s="4"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="3:14">
+    <row r="142" spans="3:14" ht="15">
       <c r="C142" s="4">
         <v>141</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F142" s="4">
-        <v>2</v>
-      </c>
+      <c r="D142" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E142" s="9"/>
+      <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="9"/>
       <c r="I142" s="4"/>
@@ -8062,19 +8062,17 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G143" s="4"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8092,7 +8090,7 @@
         <v>19</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>2</v>
@@ -8110,28 +8108,26 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>867</v>
+        <v>19</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="I145" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="14"/>
     </row>
-    <row r="146" spans="3:14" ht="14.25">
+    <row r="146" spans="3:14">
       <c r="C146" s="4">
         <v>145</v>
       </c>
@@ -8142,12 +8138,14 @@
         <v>867</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>215</v>
+        <v>633</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>861</v>
+      </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -8155,23 +8153,23 @@
       <c r="M146" s="4"/>
       <c r="N146" s="14"/>
     </row>
-    <row r="147" spans="3:14">
+    <row r="147" spans="3:14" ht="14.25">
       <c r="C147" s="4">
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>640</v>
+      <c r="E147" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="9"/>
+      <c r="H147" s="16"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -8186,26 +8184,50 @@
       <c r="D148" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>867</v>
+      <c r="E148" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="14"/>
     </row>
+    <row r="149" spans="3:14">
+      <c r="C149" s="4">
+        <v>148</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N148">
+  <conditionalFormatting sqref="N2:N149">
     <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8214,21 +8236,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43:F44 F34:F35 F91 F70:F71 F108 F115:F116 F17:F32 F46:F59 F73:F89 F110:F113 F134:F137 F61:F62 F37:F41 F132 F98:F99 F64:F68 F2:F14 F93:F96 F101:F106 F118:F130 F139:F148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F45 F35:F36 F92 F71:F72 F109 F116:F117 F47:F60 F74:F90 F111:F114 F135:F138 F62:F63 F38:F42 F133 F99:F100 F65:F69 F2:F14 F94:F97 F102:F107 F119:F131 F140:F149 F17:F19 F21:F33">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G144 G146:G148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G147:G149 G2:G145">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D143:D144 D126:D140 D74:D83 D85:D100 D62:D63 D38:D45 D65:D72 D55:D60 D47:D53 D8 D3:D4 D17:D26 D28:D33 D35:D36 D10:D15 D102:D124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:D145 D127:D141 D75:D84 D86:D101 D63:D64 D39:D46 D66:D73 D56:D61 D48:D54 D8 D3:D4 D29:D34 D36:D37 D10:D15 D103:D125 D17:D27">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E149">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H37" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H38" r:id="rId1" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
